--- a/Evaluation/Dataset.xlsx
+++ b/Evaluation/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\MatchingLetterGame\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E52C559-D2B3-4429-8CC9-56E53E980930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B4CA14-A75F-4559-8DA4-3662A819529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="589" activeTab="5" xr2:uid="{078A28CE-FD62-4ACD-A2CB-A56535CB44E0}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12240" tabRatio="589" activeTab="2" xr2:uid="{078A28CE-FD62-4ACD-A2CB-A56535CB44E0}"/>
   </bookViews>
   <sheets>
     <sheet name="LF67" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="127">
   <si>
     <t xml:space="preserve">e </t>
   </si>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4584802D-C603-4BB4-80CE-EFE1A0739FAE}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,11 +955,11 @@
         <v>4</v>
       </c>
       <c r="X2">
-        <v>15.1</v>
+        <v>14.6</v>
       </c>
       <c r="Y2" t="str">
         <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" &amp; "&amp;D2&amp;" &amp; "&amp;E2&amp;" &amp; "&amp;F2&amp;" &amp; "&amp;G2&amp;" &amp; "&amp;H2&amp;" &amp; \foreignlanguage{Russian}{"&amp;I2&amp;"} &amp; "&amp;J2&amp;" &amp; "&amp;K2&amp;" &amp; "&amp;L2&amp;" &amp; "&amp;M2&amp;" &amp; "&amp;N2&amp;" &amp; \foreignlanguage{Russian}{"&amp;O2&amp;"} &amp; "&amp;P2&amp;" &amp; "&amp;Q2&amp;" &amp; "&amp;R2&amp;" &amp; "&amp;S2&amp;" &amp; "&amp;T2&amp;" &amp; \foreignlanguage{Russian}{"&amp;U2&amp;"} &amp; "&amp;V2&amp;" &amp; "&amp;W2&amp;" &amp; "&amp;X2&amp;"\\"</f>
-        <v>e  &amp; 17.7 &amp; e  &amp; 13.1 &amp; a  &amp; 16.2 &amp; e  &amp; 12.3 &amp; \foreignlanguage{Russian}{а } &amp; 12.8 &amp; a  &amp; 16.5 &amp; a  &amp; 10.1 &amp; \foreignlanguage{Russian}{о } &amp; 9.7 &amp; o  &amp; 10 &amp; a  &amp; 12.8 &amp; \foreignlanguage{Russian}{а } &amp; 11.5 &amp; a  &amp; 15.1\\</v>
+        <v>e  &amp; 17.7 &amp; e  &amp; 13.1 &amp; a  &amp; 16.2 &amp; e  &amp; 12.3 &amp; \foreignlanguage{Russian}{а } &amp; 12.8 &amp; a  &amp; 16.5 &amp; a  &amp; 10.1 &amp; \foreignlanguage{Russian}{о } &amp; 9.7 &amp; o  &amp; 10 &amp; a  &amp; 12.8 &amp; \foreignlanguage{Russian}{а } &amp; 11.5 &amp; a  &amp; 14.6\\</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -1111,11 +1111,11 @@
         <v>11</v>
       </c>
       <c r="X4">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" si="0"/>
-        <v>n  &amp; 8.5 &amp; r  &amp; 7.8 &amp; r  &amp; 8.8 &amp; s  &amp; 8.2 &amp; \foreignlanguage{Russian}{е } &amp; 7 &amp; i  &amp; 8.6 &amp; i  &amp; 6.9 &amp; \foreignlanguage{Russian}{е } &amp; 7.5 &amp; i  &amp; 9.4 &amp; i  &amp; 7.7 &amp; \foreignlanguage{Russian}{е } &amp; 6.9 &amp; o  &amp; 6.4\\</v>
+        <v>n  &amp; 8.5 &amp; r  &amp; 7.8 &amp; r  &amp; 8.8 &amp; s  &amp; 8.2 &amp; \foreignlanguage{Russian}{е } &amp; 7 &amp; i  &amp; 8.6 &amp; i  &amp; 6.9 &amp; \foreignlanguage{Russian}{е } &amp; 7.5 &amp; i  &amp; 9.4 &amp; i  &amp; 7.7 &amp; \foreignlanguage{Russian}{е } &amp; 6.9 &amp; o  &amp; 6.2\\</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -1267,11 +1267,11 @@
         <v>2</v>
       </c>
       <c r="X6">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="0"/>
-        <v>a  &amp; 5.5 &amp; i  &amp; 6.9 &amp; s  &amp; 7.5 &amp; i  &amp; 7 &amp; \foreignlanguage{Russian}{т } &amp; 6.3 &amp; r  &amp; 6.2 &amp; r  &amp; 5.2 &amp; \foreignlanguage{Russian}{р } &amp; 5.7 &amp; n  &amp; 6.6 &amp; r  &amp; 6.1 &amp; \foreignlanguage{Russian}{р } &amp; 6.2 &amp; n  &amp; 6\\</v>
+        <v>a  &amp; 5.5 &amp; i  &amp; 6.9 &amp; s  &amp; 7.5 &amp; i  &amp; 7 &amp; \foreignlanguage{Russian}{т } &amp; 6.3 &amp; r  &amp; 6.2 &amp; r  &amp; 5.2 &amp; \foreignlanguage{Russian}{р } &amp; 5.7 &amp; n  &amp; 6.6 &amp; r  &amp; 6.1 &amp; \foreignlanguage{Russian}{р } &amp; 6.2 &amp; n  &amp; 5.9\\</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -1423,11 +1423,11 @@
         <v>5</v>
       </c>
       <c r="X8">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="0"/>
-        <v>i  &amp; 5.3 &amp; n  &amp; 6.1 &amp; n  &amp; 5.6 &amp; n  &amp; 5.8 &amp; \foreignlanguage{Russian}{р } &amp; 5.3 &amp; t  &amp; 5.4 &amp; n  &amp; 4.5 &amp; \foreignlanguage{Russian}{н } &amp; 5.6 &amp; l  &amp; 5.2 &amp; ı  &amp; 5.6 &amp; \foreignlanguage{Russian}{ә } &amp; 5.8 &amp; s  &amp; 5.4\\</v>
+        <v>i  &amp; 5.3 &amp; n  &amp; 6.1 &amp; n  &amp; 5.6 &amp; n  &amp; 5.8 &amp; \foreignlanguage{Russian}{р } &amp; 5.3 &amp; t  &amp; 5.4 &amp; n  &amp; 4.5 &amp; \foreignlanguage{Russian}{н } &amp; 5.6 &amp; l  &amp; 5.2 &amp; ı  &amp; 5.6 &amp; \foreignlanguage{Russian}{ә } &amp; 5.8 &amp; s  &amp; 5.2\\</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1501,11 +1501,11 @@
         <v>1</v>
       </c>
       <c r="X9">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="0"/>
-        <v>l  &amp; 5.1 &amp; o  &amp; 5.3 &amp; t  &amp; 4.9 &amp; é  &amp; 5.5 &amp; \foreignlanguage{Russian}{л } &amp; 4.5 &amp; s  &amp; 5.1 &amp; w  &amp; 4.3 &amp; \foreignlanguage{Russian}{л } &amp; 4.7 &amp; t  &amp; 4.3 &amp; k  &amp; 4.7 &amp; \foreignlanguage{Russian}{т } &amp; 5.6 &amp; t  &amp; 4.8\\</v>
+        <v>l  &amp; 5.1 &amp; o  &amp; 5.3 &amp; t  &amp; 4.9 &amp; é  &amp; 5.5 &amp; \foreignlanguage{Russian}{л } &amp; 4.5 &amp; s  &amp; 5.1 &amp; w  &amp; 4.3 &amp; \foreignlanguage{Russian}{л } &amp; 4.7 &amp; t  &amp; 4.3 &amp; k  &amp; 4.7 &amp; \foreignlanguage{Russian}{т } &amp; 5.6 &amp; t  &amp; 4.7\\</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -1579,11 +1579,11 @@
         <v>14</v>
       </c>
       <c r="X10">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="0"/>
-        <v>g  &amp; 4.4 &amp; l  &amp; 5.2 &amp; d  &amp; 4.4 &amp; o  &amp; 5.3 &amp; \foreignlanguage{Russian}{с } &amp; 4.3 &amp; k  &amp; 4.7 &amp; y  &amp; 4.1 &amp; \foreignlanguage{Russian}{с } &amp; 4.7 &amp; s  &amp; 4.1 &amp; t  &amp; 4.3 &amp; \foreignlanguage{Russian}{к } &amp; 5.4 &amp; d  &amp; 4\\</v>
+        <v>g  &amp; 4.4 &amp; l  &amp; 5.2 &amp; d  &amp; 4.4 &amp; o  &amp; 5.3 &amp; \foreignlanguage{Russian}{с } &amp; 4.3 &amp; k  &amp; 4.7 &amp; y  &amp; 4.1 &amp; \foreignlanguage{Russian}{с } &amp; 4.7 &amp; s  &amp; 4.1 &amp; t  &amp; 4.3 &amp; \foreignlanguage{Russian}{к } &amp; 5.4 &amp; d  &amp; 3.9\\</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1657,11 +1657,11 @@
         <v>10</v>
       </c>
       <c r="X11">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="0"/>
-        <v>h  &amp; 3.8 &amp; d  &amp; 5.2 &amp; l  &amp; 4.4 &amp; u  &amp; 4.8 &amp; \foreignlanguage{Russian}{д } &amp; 4 &amp; m  &amp; 4.3 &amp; k  &amp; 4.1 &amp; \foreignlanguage{Russian}{к } &amp; 4 &amp; v  &amp; 3.9 &amp; m  &amp; 4.2 &amp; \foreignlanguage{Russian}{с } &amp; 3.6 &amp; u  &amp; 3.5\\</v>
+        <v>h  &amp; 3.8 &amp; d  &amp; 5.2 &amp; l  &amp; 4.4 &amp; u  &amp; 4.8 &amp; \foreignlanguage{Russian}{д } &amp; 4 &amp; m  &amp; 4.3 &amp; k  &amp; 4.1 &amp; \foreignlanguage{Russian}{к } &amp; 4 &amp; v  &amp; 3.9 &amp; m  &amp; 4.2 &amp; \foreignlanguage{Russian}{с } &amp; 3.6 &amp; u  &amp; 3.3\\</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
@@ -1735,11 +1735,11 @@
         <v>9</v>
       </c>
       <c r="X12">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="0"/>
-        <v>u  &amp; 3 &amp; c  &amp; 3.8 &amp; c  &amp; 4.3 &amp; l  &amp; 4.5 &amp; \foreignlanguage{Russian}{қ } &amp; 3.3 &amp; l  &amp; 4.1 &amp; s  &amp; 3.9 &amp; \foreignlanguage{Russian}{в } &amp; 4 &amp; k  &amp; 3.8 &amp; d  &amp; 3.9 &amp; \foreignlanguage{Russian}{и } &amp; 3.5 &amp; h  &amp; 3.4\\</v>
+        <v>u  &amp; 3 &amp; c  &amp; 3.8 &amp; c  &amp; 4.3 &amp; l  &amp; 4.5 &amp; \foreignlanguage{Russian}{қ } &amp; 3.3 &amp; l  &amp; 4.1 &amp; s  &amp; 3.9 &amp; \foreignlanguage{Russian}{в } &amp; 4 &amp; k  &amp; 3.8 &amp; d  &amp; 3.9 &amp; \foreignlanguage{Russian}{и } &amp; 3.5 &amp; h  &amp; 3.3\\</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
@@ -1810,14 +1810,14 @@
         <v>3.1</v>
       </c>
       <c r="W13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="X13">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="0"/>
-        <v>b  &amp; 2.8 &amp; u  &amp; 3.5 &amp; u  &amp; 3.5 &amp; c  &amp; 4.1 &amp; \foreignlanguage{Russian}{к } &amp; 2.8 &amp; p  &amp; 3.3 &amp; c  &amp; 3.6 &amp; \foreignlanguage{Russian}{м } &amp; 3.7 &amp; p  &amp; 3.7 &amp; s  &amp; 3.7 &amp; \foreignlanguage{Russian}{м } &amp; 3.1 &amp; m  &amp; 3.3\\</v>
+        <v>b  &amp; 2.8 &amp; u  &amp; 3.5 &amp; u  &amp; 3.5 &amp; c  &amp; 4.1 &amp; \foreignlanguage{Russian}{к } &amp; 2.8 &amp; p  &amp; 3.3 &amp; c  &amp; 3.6 &amp; \foreignlanguage{Russian}{м } &amp; 3.7 &amp; p  &amp; 3.7 &amp; s  &amp; 3.7 &amp; \foreignlanguage{Russian}{м } &amp; 3.1 &amp; k  &amp; 3.1\\</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -1888,14 +1888,14 @@
         <v>3.1</v>
       </c>
       <c r="W14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X14">
         <v>3.1</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="0"/>
-        <v>o  &amp; 2.5 &amp; g  &amp; 3.3 &amp; m  &amp; 2.7 &amp; p  &amp; 2.9 &amp; \foreignlanguage{Russian}{у } &amp; 2.7 &amp; g  &amp; 3.3 &amp; t  &amp; 3.5 &amp; \foreignlanguage{Russian}{у } &amp; 3.2 &amp; d  &amp; 3.5 &amp; y  &amp; 3.6 &amp; \foreignlanguage{Russian}{г } &amp; 3.1 &amp; k  &amp; 3.1\\</v>
+        <v>o  &amp; 2.5 &amp; g  &amp; 3.3 &amp; m  &amp; 2.7 &amp; p  &amp; 2.9 &amp; \foreignlanguage{Russian}{у } &amp; 2.7 &amp; g  &amp; 3.3 &amp; t  &amp; 3.5 &amp; \foreignlanguage{Russian}{у } &amp; 3.2 &amp; d  &amp; 3.5 &amp; y  &amp; 3.6 &amp; \foreignlanguage{Russian}{г } &amp; 3.1 &amp; m  &amp; 3.1\\</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
@@ -1969,11 +1969,11 @@
         <v>8</v>
       </c>
       <c r="X15">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="0"/>
-        <v>m  &amp; 2.5 &amp; p  &amp; 3 &amp; p  &amp; 2.6 &amp; m  &amp; 2.7 &amp; \foreignlanguage{Russian}{м } &amp; 2.7 &amp; d  &amp; 3.2 &amp; d  &amp; 3.4 &amp; \foreignlanguage{Russian}{д } &amp; 3.1 &amp; j  &amp; 3.1 &amp; u  &amp; 3.5 &amp; \foreignlanguage{Russian}{у } &amp; 2.6 &amp; g  &amp; 2.9\\</v>
+        <v>m  &amp; 2.5 &amp; p  &amp; 3 &amp; p  &amp; 2.6 &amp; m  &amp; 2.7 &amp; \foreignlanguage{Russian}{м } &amp; 2.7 &amp; d  &amp; 3.2 &amp; d  &amp; 3.4 &amp; \foreignlanguage{Russian}{д } &amp; 3.1 &amp; j  &amp; 3.1 &amp; u  &amp; 3.5 &amp; \foreignlanguage{Russian}{у } &amp; 2.6 &amp; g  &amp; 2.8\\</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -2044,14 +2044,14 @@
         <v>2.5</v>
       </c>
       <c r="W16" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X16">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="0"/>
-        <v>d  &amp; 2.3 &amp; m  &amp; 2.5 &amp; b  &amp; 2.1 &amp; d  &amp; 2.6 &amp; \foreignlanguage{Russian}{о } &amp; 2.2 &amp; o  &amp; 2.9 &amp; u  &amp; 3.2 &amp; \foreignlanguage{Russian}{п } &amp; 2.9 &amp; m  &amp; 3.1 &amp; o  &amp; 2.3 &amp; \foreignlanguage{Russian}{д } &amp; 2.5 &amp; e  &amp; 2.7\\</v>
+        <v>d  &amp; 2.3 &amp; m  &amp; 2.5 &amp; b  &amp; 2.1 &amp; d  &amp; 2.6 &amp; \foreignlanguage{Russian}{о } &amp; 2.2 &amp; o  &amp; 2.9 &amp; u  &amp; 3.2 &amp; \foreignlanguage{Russian}{п } &amp; 2.9 &amp; m  &amp; 3.1 &amp; o  &amp; 2.3 &amp; \foreignlanguage{Russian}{д } &amp; 2.5 &amp; b  &amp; 2.6\\</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -2200,14 +2200,14 @@
         <v>1.9</v>
       </c>
       <c r="W18" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="0"/>
-        <v>c  &amp; 2.2 &amp; b  &amp; 2 &amp; v  &amp; 1.5 &amp; v  &amp; 1.8 &amp; \foreignlanguage{Russian}{п } &amp; 2 &amp; h  &amp; 2 &amp; p  &amp; 3 &amp; \foreignlanguage{Russian}{з } &amp; 2 &amp; u  &amp; 2.3 &amp; z  &amp; 1.7 &amp; \foreignlanguage{Russian}{о } &amp; 1.9 &amp; b  &amp; 2.5\\</v>
+        <v>c  &amp; 2.2 &amp; b  &amp; 2 &amp; v  &amp; 1.5 &amp; v  &amp; 1.8 &amp; \foreignlanguage{Russian}{п } &amp; 2 &amp; h  &amp; 2 &amp; p  &amp; 3 &amp; \foreignlanguage{Russian}{з } &amp; 2 &amp; u  &amp; 2.3 &amp; z  &amp; 1.7 &amp; \foreignlanguage{Russian}{о } &amp; 1.9 &amp; e  &amp; 2.4\\</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
@@ -2281,11 +2281,11 @@
         <v>29</v>
       </c>
       <c r="X19">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="0"/>
-        <v>k  &amp; 2.1 &amp; y  &amp; 1.7 &amp; f  &amp; 1 &amp; b  &amp; 1.6 &amp; \foreignlanguage{Russian}{ғ } &amp; 1.7 &amp; y  &amp; 1.2 &amp; ł  &amp; 2.9 &amp; \foreignlanguage{Russian}{б } &amp; 1.9 &amp; b  &amp; 1.9 &amp; b  &amp; 1.7 &amp; \foreignlanguage{Russian}{ш } &amp; 1.8 &amp; q  &amp; 2.2\\</v>
+        <v>k  &amp; 2.1 &amp; y  &amp; 1.7 &amp; f  &amp; 1 &amp; b  &amp; 1.6 &amp; \foreignlanguage{Russian}{ғ } &amp; 1.7 &amp; y  &amp; 1.2 &amp; ł  &amp; 2.9 &amp; \foreignlanguage{Russian}{б } &amp; 1.9 &amp; b  &amp; 1.9 &amp; b  &amp; 1.7 &amp; \foreignlanguage{Russian}{ш } &amp; 1.8 &amp; q  &amp; 2.3\\</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
@@ -2434,14 +2434,14 @@
         <v>1.7</v>
       </c>
       <c r="W21" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="X21">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="Y21" t="str">
         <f t="shared" si="0"/>
-        <v>z  &amp; 1.3 &amp; k  &amp; 1.2 &amp; h  &amp; 0.8 &amp; h  &amp; 1.3 &amp; \foreignlanguage{Russian}{й } &amp; 1.6 &amp; c  &amp; 1 &amp; b  &amp; 2 &amp; \foreignlanguage{Russian}{г } &amp; 1.6 &amp; g  &amp; 1.6 &amp; g  &amp; 1.2 &amp; \foreignlanguage{Russian}{ч } &amp; 1.7 &amp; v  &amp; 1.4\\</v>
+        <v>z  &amp; 1.3 &amp; k  &amp; 1.2 &amp; h  &amp; 0.8 &amp; h  &amp; 1.3 &amp; \foreignlanguage{Russian}{й } &amp; 1.6 &amp; c  &amp; 1 &amp; b  &amp; 2 &amp; \foreignlanguage{Russian}{г } &amp; 1.6 &amp; g  &amp; 1.6 &amp; g  &amp; 1.2 &amp; \foreignlanguage{Russian}{ч } &amp; 1.7 &amp; ō  &amp; 1.3\\</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -2512,14 +2512,14 @@
         <v>1.5</v>
       </c>
       <c r="W22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="X22">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="Y22" t="str">
         <f t="shared" si="0"/>
-        <v>w  &amp; 1.2 &amp; w  &amp; 1.2 &amp; z  &amp; 0.6 &amp; x  &amp; 0.5 &amp; \foreignlanguage{Russian}{з } &amp; 1.6 &amp; f  &amp; 0.6 &amp; ą  &amp; 1.9 &amp; \foreignlanguage{Russian}{й } &amp; 1.5 &amp; h  &amp; 1.3 &amp; ç  &amp; 1.2 &amp; \foreignlanguage{Russian}{п } &amp; 1.5 &amp; p  &amp; 1.1\\</v>
+        <v>w  &amp; 1.2 &amp; w  &amp; 1.2 &amp; z  &amp; 0.6 &amp; x  &amp; 0.5 &amp; \foreignlanguage{Russian}{з } &amp; 1.6 &amp; f  &amp; 0.6 &amp; ą  &amp; 1.9 &amp; \foreignlanguage{Russian}{й } &amp; 1.5 &amp; h  &amp; 1.3 &amp; ç  &amp; 1.2 &amp; \foreignlanguage{Russian}{п } &amp; 1.5 &amp; v  &amp; 1.3\\</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -2590,14 +2590,14 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="X23">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y23" t="str">
         <f t="shared" si="0"/>
-        <v>ü  &amp; 1 &amp; v  &amp; 1.1 &amp; ñ  &amp; 0.3 &amp; q  &amp; 0.5 &amp; \foreignlanguage{Russian}{ж } &amp; 1.5 &amp; w  &amp; 0.5 &amp; j  &amp; 1.7 &amp; \foreignlanguage{Russian}{х } &amp; 1.4 &amp; š  &amp; 1.1 &amp; p  &amp; 1 &amp; \foreignlanguage{Russian}{ү } &amp; 1.5 &amp; f  &amp; 0.9\\</v>
+        <v>ü  &amp; 1 &amp; v  &amp; 1.1 &amp; ñ  &amp; 0.3 &amp; q  &amp; 0.5 &amp; \foreignlanguage{Russian}{ж } &amp; 1.5 &amp; w  &amp; 0.5 &amp; j  &amp; 1.7 &amp; \foreignlanguage{Russian}{х } &amp; 1.4 &amp; š  &amp; 1.1 &amp; p  &amp; 1 &amp; \foreignlanguage{Russian}{ү } &amp; 1.5 &amp; p  &amp; 1.1\\</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
@@ -2671,11 +2671,11 @@
         <v>17</v>
       </c>
       <c r="X24">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Y24" t="str">
         <f t="shared" si="0"/>
-        <v>ä  &amp; 1 &amp; x  &amp; 0.3 &amp; q  &amp; 0.3 &amp; y  &amp; 0.4 &amp; \foreignlanguage{Russian}{и } &amp; 1.4 &amp; v  &amp; 0.3 &amp; g  &amp; 1.6 &amp; \foreignlanguage{Russian}{ч } &amp; 1.2 &amp; c  &amp; 0.9 &amp; ğ  &amp; 1 &amp; \foreignlanguage{Russian}{й } &amp; 1.3 &amp; c  &amp; 0.8\\</v>
+        <v>ä  &amp; 1 &amp; x  &amp; 0.3 &amp; q  &amp; 0.3 &amp; y  &amp; 0.4 &amp; \foreignlanguage{Russian}{и } &amp; 1.4 &amp; v  &amp; 0.3 &amp; g  &amp; 1.6 &amp; \foreignlanguage{Russian}{ч } &amp; 1.2 &amp; c  &amp; 0.9 &amp; ğ  &amp; 1 &amp; \foreignlanguage{Russian}{й } &amp; 1.3 &amp; c  &amp; 0.9\\</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -2746,14 +2746,14 @@
         <v>1.3</v>
       </c>
       <c r="W25" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="X25">
         <v>0.8</v>
       </c>
       <c r="Y25" t="str">
         <f t="shared" si="0"/>
-        <v>v  &amp; 0.7 &amp; z  &amp; 0.2 &amp; x  &amp; 0.2 &amp; è  &amp; 0.4 &amp; \foreignlanguage{Russian}{ң } &amp; 1.4 &amp; z  &amp; 0.2 &amp; ę  &amp; 1.1 &amp; \foreignlanguage{Russian}{ь } &amp; 1.1 &amp; ž  &amp; 0.9 &amp; c  &amp; 1 &amp; \foreignlanguage{Russian}{я } &amp; 1.3 &amp; x  &amp; 0.8\\</v>
+        <v>v  &amp; 0.7 &amp; z  &amp; 0.2 &amp; x  &amp; 0.2 &amp; è  &amp; 0.4 &amp; \foreignlanguage{Russian}{ң } &amp; 1.4 &amp; z  &amp; 0.2 &amp; ę  &amp; 1.1 &amp; \foreignlanguage{Russian}{ь } &amp; 1.1 &amp; ž  &amp; 0.9 &amp; c  &amp; 1 &amp; \foreignlanguage{Russian}{я } &amp; 1.3 &amp; f  &amp; 0.8\\</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -2824,14 +2824,14 @@
         <v>1</v>
       </c>
       <c r="W26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X26">
         <v>0.7</v>
       </c>
       <c r="Y26" t="str">
         <f t="shared" si="0"/>
-        <v>ö  &amp; 0.5 &amp; j  &amp; 0.2 &amp; y  &amp; 0.2 &amp; j  &amp; 0.3 &amp; \foreignlanguage{Russian}{г } &amp; 1.3 &amp; q  &amp; 0 &amp; ó  &amp; 1.1 &amp; \foreignlanguage{Russian}{ж } &amp; 1 &amp; f  &amp; 0.3 &amp; h  &amp; 1 &amp; \foreignlanguage{Russian}{ө } &amp; 1 &amp; j  &amp; 0.7\\</v>
+        <v>ö  &amp; 0.5 &amp; j  &amp; 0.2 &amp; y  &amp; 0.2 &amp; j  &amp; 0.3 &amp; \foreignlanguage{Russian}{г } &amp; 1.3 &amp; q  &amp; 0 &amp; ó  &amp; 1.1 &amp; \foreignlanguage{Russian}{ж } &amp; 1 &amp; f  &amp; 0.3 &amp; h  &amp; 1 &amp; \foreignlanguage{Russian}{ө } &amp; 1 &amp; x  &amp; 0.7\\</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
@@ -2895,9 +2895,15 @@
       <c r="V27">
         <v>0.9</v>
       </c>
+      <c r="W27" t="s">
+        <v>103</v>
+      </c>
+      <c r="X27">
+        <v>0.7</v>
+      </c>
       <c r="Y27" t="str">
         <f t="shared" si="0"/>
-        <v>ß  &amp; 0.2 &amp; q  &amp; 0.2 &amp; k  &amp; 0.1 &amp; k  &amp; 0.2 &amp; \foreignlanguage{Russian}{ұ } &amp; 1.1 &amp; x  &amp; 0 &amp; h  &amp; 1 &amp; \foreignlanguage{Russian}{ю } &amp; 0.7 &amp;  &amp;  &amp; ö  &amp; 0.9 &amp; \foreignlanguage{Russian}{ң } &amp; 0.9 &amp;  &amp; \\</v>
+        <v>ß  &amp; 0.2 &amp; q  &amp; 0.2 &amp; k  &amp; 0.1 &amp; k  &amp; 0.2 &amp; \foreignlanguage{Russian}{ұ } &amp; 1.1 &amp; x  &amp; 0 &amp; h  &amp; 1 &amp; \foreignlanguage{Russian}{ю } &amp; 0.7 &amp;  &amp;  &amp; ö  &amp; 0.9 &amp; \foreignlanguage{Russian}{ң } &amp; 0.9 &amp; ḡ  &amp; 0.7\\</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
@@ -2949,9 +2955,15 @@
       <c r="V28">
         <v>0.6</v>
       </c>
+      <c r="W28" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>0.6</v>
+      </c>
       <c r="Y28" t="str">
         <f t="shared" si="0"/>
-        <v>j  &amp; 0.2 &amp;  &amp;  &amp; w  &amp; 0 &amp; ê  &amp; 0.1 &amp; \foreignlanguage{Russian}{ө } &amp; 1 &amp;  &amp;  &amp; ć  &amp; 0.9 &amp; \foreignlanguage{Russian}{ш } &amp; 0.7 &amp;  &amp;  &amp; v  &amp; 0.9 &amp; \foreignlanguage{Russian}{в } &amp; 0.6 &amp;  &amp; \\</v>
+        <v>j  &amp; 0.2 &amp;  &amp;  &amp; w  &amp; 0 &amp; ê  &amp; 0.1 &amp; \foreignlanguage{Russian}{ө } &amp; 1 &amp;  &amp;  &amp; ć  &amp; 0.9 &amp; \foreignlanguage{Russian}{ш } &amp; 0.7 &amp;  &amp;  &amp; v  &amp; 0.9 &amp; \foreignlanguage{Russian}{в } &amp; 0.6 &amp; j  &amp; 0.6\\</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -3353,7 +3365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85B3010-EDD0-41BB-AD9E-D1F78B6F00FA}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -5948,10 +5960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2994B137-E9BB-474A-AF88-A3AE4F9CF583}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5960,7 +5972,7 @@
     <col min="2" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>116</v>
       </c>
@@ -5980,7 +5992,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
@@ -5999,8 +6011,21 @@
       <c r="F2" s="3">
         <v>13828</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>7044</v>
+      </c>
+      <c r="H2">
+        <v>2944</v>
+      </c>
+      <c r="I2">
+        <v>4100</v>
+      </c>
+      <c r="J2" t="str">
+        <f>A2&amp;" &amp; "&amp;B2&amp;" &amp; "&amp;C2&amp;" &amp; "&amp;D2&amp;" &amp; "&amp;E2&amp;" &amp; "&amp;G2&amp;" &amp; "&amp;H2&amp;" &amp; "&amp;I2&amp;" \\"</f>
+        <v>de  &amp; 3126 &amp; 439 &amp; 924 &amp; 1763 &amp; 7044 &amp; 2944 &amp; 4100 \\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>105</v>
       </c>
@@ -6019,8 +6044,21 @@
       <c r="F3" s="3">
         <v>25569</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>7203</v>
+      </c>
+      <c r="H3">
+        <v>3295</v>
+      </c>
+      <c r="I3">
+        <v>3908</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J13" si="0">A3&amp;" &amp; "&amp;B3&amp;" &amp; "&amp;C3&amp;" &amp; "&amp;D3&amp;" &amp; "&amp;E3&amp;" &amp; "&amp;G3&amp;" &amp; "&amp;H3&amp;" &amp; "&amp;I3&amp;" \\"</f>
+        <v>en  &amp; 6024 &amp; 1026 &amp; 2499 &amp; 2499 &amp; 7203 &amp; 3295 &amp; 3908 \\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
@@ -6039,8 +6077,21 @@
       <c r="F4" s="3">
         <v>25210</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>6207</v>
+      </c>
+      <c r="H4">
+        <v>2500</v>
+      </c>
+      <c r="I4">
+        <v>3707</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>es  &amp; 5538 &amp; 483 &amp; 1514 &amp; 3541 &amp; 6207 &amp; 2500 &amp; 3707 \\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
@@ -6059,8 +6110,21 @@
       <c r="F5" s="3">
         <v>16479</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>8063</v>
+      </c>
+      <c r="H5">
+        <v>3430</v>
+      </c>
+      <c r="I5">
+        <v>4633</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>fr  &amp; 3634 &amp; 350 &amp; 991 &amp; 2293 &amp; 8063 &amp; 3430 &amp; 4633 \\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
@@ -6079,8 +6143,21 @@
       <c r="F6" s="3">
         <v>20499</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>9439</v>
+      </c>
+      <c r="H6">
+        <v>4068</v>
+      </c>
+      <c r="I6">
+        <v>5371</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>kz  &amp; 4539 &amp; 493 &amp; 1210 &amp; 2836 &amp; 9439 &amp; 4068 &amp; 5371 \\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
@@ -6099,8 +6176,21 @@
       <c r="F7" s="3">
         <v>17140</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>5270</v>
+      </c>
+      <c r="H7">
+        <v>2275</v>
+      </c>
+      <c r="I7">
+        <v>2995</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>ms  &amp; 3829 &amp; 438 &amp; 1129 &amp; 2262 &amp; 5270 &amp; 2275 &amp; 2995 \\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>110</v>
       </c>
@@ -6119,8 +6209,21 @@
       <c r="F8" s="3">
         <v>21616</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>9556</v>
+      </c>
+      <c r="H8">
+        <v>4108</v>
+      </c>
+      <c r="I8">
+        <v>5448</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>pl  &amp; 4718 &amp; 350 &amp; 1274 &amp; 3094 &amp; 9556 &amp; 4108 &amp; 5448 \\</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>111</v>
       </c>
@@ -6139,8 +6242,21 @@
       <c r="F9" s="3">
         <v>19223</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>9085</v>
+      </c>
+      <c r="H9">
+        <v>4017</v>
+      </c>
+      <c r="I9">
+        <v>5068</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>ru  &amp; 4308 &amp; 516 &amp; 1285 &amp; 2507 &amp; 9085 &amp; 4017 &amp; 5068 \\</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>112</v>
       </c>
@@ -6159,8 +6275,21 @@
       <c r="F10" s="3">
         <v>28772</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>9189</v>
+      </c>
+      <c r="H10">
+        <v>4198</v>
+      </c>
+      <c r="I10">
+        <v>4991</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>sl  &amp; 6280 &amp; 515 &amp; 1598 &amp; 4167 &amp; 9189 &amp; 4198 &amp; 4991 \\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>113</v>
       </c>
@@ -6179,8 +6308,21 @@
       <c r="F11" s="3">
         <v>19975</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>8754</v>
+      </c>
+      <c r="H11">
+        <v>3563</v>
+      </c>
+      <c r="I11">
+        <v>5191</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>tr  &amp; 4392 &amp; 417 &amp; 1151 &amp; 2824 &amp; 8754 &amp; 3563 &amp; 5191 \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>114</v>
       </c>
@@ -6199,8 +6341,21 @@
       <c r="F12" s="3">
         <v>18435</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>9478</v>
+      </c>
+      <c r="H12">
+        <v>4077</v>
+      </c>
+      <c r="I12">
+        <v>5401</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>tt  &amp; 4066 &amp; 403 &amp; 1089 &amp; 2574 &amp; 9478 &amp; 4077 &amp; 5401 \\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
@@ -6218,6 +6373,19 @@
       </c>
       <c r="F13" s="3">
         <v>20589</v>
+      </c>
+      <c r="G13">
+        <v>8456</v>
+      </c>
+      <c r="H13">
+        <v>3774</v>
+      </c>
+      <c r="I13">
+        <v>4682</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>uz  &amp; 4558 &amp; 518 &amp; 1165 &amp; 2875 &amp; 8456 &amp; 3774 &amp; 4682 \\</v>
       </c>
     </row>
   </sheetData>
@@ -6229,7 +6397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A27076-C321-4BDF-9445-D4EE9F148D42}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9977,11 +10147,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
@@ -9989,6 +10154,11 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9998,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BE9901-CC65-484E-9943-72DE1988263C}">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AJ28" sqref="AJ2:AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Evaluation/Dataset.xlsx
+++ b/Evaluation/Dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\MatchingLetterGame\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B4CA14-A75F-4559-8DA4-3662A819529A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEC572E-B18F-471D-98A3-F7C73FF6F316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12240" tabRatio="589" activeTab="2" xr2:uid="{078A28CE-FD62-4ACD-A2CB-A56535CB44E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="589" activeTab="5" xr2:uid="{078A28CE-FD62-4ACD-A2CB-A56535CB44E0}"/>
   </bookViews>
   <sheets>
     <sheet name="LF67" sheetId="7" r:id="rId1"/>
@@ -5962,7 +5962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2994B137-E9BB-474A-AF88-A3AE4F9CF583}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2:J13"/>
     </sheetView>
   </sheetViews>
@@ -10147,6 +10147,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
@@ -10154,11 +10159,6 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10168,8 +10168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BE9901-CC65-484E-9943-72DE1988263C}">
   <dimension ref="A1:AJ42"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AJ28" sqref="AJ2:AJ28"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
